--- a/RMSE_PVTE.xlsx
+++ b/RMSE_PVTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Filesotre\湖工商\湖工商学习\毕业论文\Code\EOS\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBDCD2E-7DB1-4ADD-9BDB-32799023525D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0280FFD-DF32-4557-8CF2-FDCC30D3DB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
   <si>
     <t>Mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -922,15 +922,22 @@
     <t>Dataset 6.  Semi-Empirical Physics EOS experimental results for different training and testing set divisions on the P-T plain.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000000000000_ "/>
+    <numFmt numFmtId="180" formatCode="0.000000000000_ "/>
+    <numFmt numFmtId="181" formatCode="0.00000000000000_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1040,7 +1047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1102,6 +1109,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1122,41 +1147,16 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1165,15 +1165,12 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1195,19 +1192,19 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>652462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2">
@@ -1221,7 +1218,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7943850" y="990600"/>
+              <a:off x="8101012" y="652462"/>
               <a:ext cx="3576638" cy="1538288"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1416,7 +1413,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2">
@@ -1430,7 +1427,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7943850" y="990600"/>
+              <a:off x="8101012" y="652462"/>
               <a:ext cx="3576638" cy="1538288"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6749,6 +6746,166 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>538163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A80C3EC-3654-F8D9-5D7A-48053BBFAD77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5624514" y="538163"/>
+          <a:ext cx="7258050" cy="2481262"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Data Preparation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>: Begin by editing the ".dat" file to upload the training data, including V (cm³/mol), P (GPa), and T (K). Ensure that the "Experimental Data," "EOS Curves," and "Least Square Fitting information on window" options are selected. Refer to the software example for the specific format.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Model Selection</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>: First, choose the "EOS Type," followed by selecting the "Thermal Type." The "EOS Order" should be left at the default value of 2.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Data Fitting</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>: Start by clicking "Estimate" to perform an initial evaluation. Then, sequentially select the six parameters (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>V0,K0,Kp,ThMGD,Gamm0,q)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>, and click "Fit" to conduct the fitting process.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Data Prediction</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>: Click on the fourth chart (Calculator for EOS) located at the top left corner of the software. Under the "Calculations" section, input the test data for Temperature (K) and then enter the corresponding test data for V (cm³/mol) to obtain the predicted Pressure (GPa).</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7012,9 +7169,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -7022,23 +7179,25 @@
   <cols>
     <col min="1" max="1" width="22.59765625" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.59765625" style="2" customWidth="1"/>
-    <col min="3" max="12" width="9.59765625" style="2" customWidth="1"/>
+    <col min="3" max="10" width="9.59765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="37.1328125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.59765625" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1" ht="51.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:11" s="16" customFormat="1" ht="51.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -7063,21 +7222,24 @@
       <c r="H2" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+      <c r="I2" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="22" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7102,9 +7264,13 @@
         <f>SUM(C4:G4)/5</f>
         <v>10.930096224</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="22"/>
+      <c r="I4" s="6">
+        <f>_xlfn.STDEV.P(C4:G4)</f>
+        <v>6.8890457997423269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="28"/>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -7127,9 +7293,13 @@
         <f>SUM(C5:G5)/5</f>
         <v>0.13019974000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="22" t="s">
+      <c r="I5" s="6">
+        <f t="shared" ref="I5:I37" si="0">_xlfn.STDEV.P(C5:G5)</f>
+        <v>0.1296400061343829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7151,12 +7321,16 @@
         <v>9.8494163199999996</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" ref="H6:H37" si="0">SUM(C6:G6)/5</f>
+        <f t="shared" ref="H6:H37" si="1">SUM(C6:G6)/5</f>
         <v>15.36933646</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="22"/>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>13.373698370605709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="28"/>
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
@@ -7176,12 +7350,16 @@
         <v>7.5997150200000002E-2</v>
       </c>
       <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10645852458000001</v>
+      </c>
+      <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>0.10645852458000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="22" t="s">
+        <v>4.7404310506321455E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="28" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -7203,12 +7381,16 @@
         <v>4.9417818200000001</v>
       </c>
       <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>12.320439516000002</v>
+      </c>
+      <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>12.320439516000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="22"/>
+        <v>7.003498929735902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="28"/>
       <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
@@ -7228,12 +7410,16 @@
         <v>6.2972390000000003E-2</v>
       </c>
       <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>8.9606091999999998E-2</v>
+      </c>
+      <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>8.9606091999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="22" t="s">
+        <v>4.7456091857805333E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -7255,12 +7441,17 @@
         <v>15.6414043</v>
       </c>
       <c r="H10" s="6">
+        <f t="shared" si="1"/>
+        <v>7.9307801900000001</v>
+      </c>
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
-        <v>7.9307801900000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="22"/>
+        <v>4.703145365772424</v>
+      </c>
+      <c r="K10" s="42"/>
+    </row>
+    <row r="11" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="28"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -7280,12 +7471,17 @@
         <v>0.12610584599999999</v>
       </c>
       <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>6.5130401960000001E-2</v>
+      </c>
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
-        <v>6.5130401960000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="22" t="s">
+        <v>5.0626028984927074E-2</v>
+      </c>
+      <c r="K11" s="42"/>
+    </row>
+    <row r="12" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -7307,12 +7503,17 @@
         <v>63.375850200000002</v>
       </c>
       <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>37.558356611999997</v>
+      </c>
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
-        <v>37.558356611999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="22"/>
+        <v>35.886103817970671</v>
+      </c>
+      <c r="K12" s="43"/>
+    </row>
+    <row r="13" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="28"/>
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
@@ -7332,24 +7533,31 @@
         <v>0.139952039</v>
       </c>
       <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>6.9758105385999997E-2</v>
+      </c>
+      <c r="I13" s="6">
         <f t="shared" si="0"/>
-        <v>6.9758105385999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="22" t="s">
+        <v>6.2916919494441947E-2</v>
+      </c>
+      <c r="K13" s="44"/>
+    </row>
+    <row r="14" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="22" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="6"/>
+      <c r="K14" s="42"/>
+    </row>
+    <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -7371,12 +7579,16 @@
         <v>247.61793957220399</v>
       </c>
       <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>221.53264993915701</v>
+      </c>
+      <c r="I15" s="6">
         <f t="shared" si="0"/>
-        <v>221.53264993915701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="22"/>
+        <v>70.259442192234943</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="28"/>
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
@@ -7396,12 +7608,16 @@
         <v>1.20932792648618</v>
       </c>
       <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2735901337648012</v>
+      </c>
+      <c r="I16" s="6">
         <f t="shared" si="0"/>
-        <v>1.2735901337648012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="22" t="s">
+        <v>0.54088247895149544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="28" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -7423,12 +7639,16 @@
         <v>88.787715253903002</v>
       </c>
       <c r="H17" s="6">
+        <f t="shared" si="1"/>
+        <v>101.96425297067512</v>
+      </c>
+      <c r="I17" s="6">
         <f t="shared" si="0"/>
-        <v>101.96425297067512</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="22"/>
+        <v>51.697476837462375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="28"/>
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
@@ -7448,12 +7668,16 @@
         <v>0.59226203944842204</v>
       </c>
       <c r="H18" s="6">
+        <f t="shared" si="1"/>
+        <v>0.44601344296622286</v>
+      </c>
+      <c r="I18" s="6">
         <f t="shared" si="0"/>
-        <v>0.44601344296622286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="22" t="s">
+        <v>0.28776559143414587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -7475,12 +7699,16 @@
         <v>14.348697842664199</v>
       </c>
       <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>18.945434143742059</v>
+      </c>
+      <c r="I19" s="6">
         <f t="shared" si="0"/>
-        <v>18.945434143742059</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="22"/>
+        <v>5.980401538216821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="28"/>
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
@@ -7500,12 +7728,16 @@
         <v>0.11977850241876301</v>
       </c>
       <c r="H20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.14383269676286367</v>
+      </c>
+      <c r="I20" s="6">
         <f t="shared" si="0"/>
-        <v>0.14383269676286367</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="22" t="s">
+        <v>4.8950474194451192E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -7527,12 +7759,16 @@
         <v>22.870681369973799</v>
       </c>
       <c r="H21" s="6">
+        <f t="shared" si="1"/>
+        <v>8.2847695213521675</v>
+      </c>
+      <c r="I21" s="6">
         <f t="shared" si="0"/>
-        <v>8.2847695213521675</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="22"/>
+        <v>7.4383326370979095</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="28"/>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
@@ -7552,12 +7788,16 @@
         <v>0.1380616350584</v>
       </c>
       <c r="H22" s="6">
+        <f t="shared" si="1"/>
+        <v>6.3822141694539897E-2</v>
+      </c>
+      <c r="I22" s="6">
         <f t="shared" si="0"/>
-        <v>6.3822141694539897E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="22" t="s">
+        <v>4.7787520930271832E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -7579,12 +7819,16 @@
         <v>62.091643007518101</v>
       </c>
       <c r="H23" s="6">
+        <f t="shared" si="1"/>
+        <v>36.0624300213547</v>
+      </c>
+      <c r="I23" s="6">
         <f t="shared" si="0"/>
-        <v>36.0624300213547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="22"/>
+        <v>34.635844513800073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="28"/>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
@@ -7604,24 +7848,29 @@
         <v>0.141564636241578</v>
       </c>
       <c r="H24" s="6">
+        <f t="shared" si="1"/>
+        <v>6.9086000892200808E-2</v>
+      </c>
+      <c r="I24" s="6">
         <f t="shared" si="0"/>
-        <v>6.9086000892200808E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="22" t="s">
+        <v>6.2319587153384107E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="22" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -7643,12 +7892,16 @@
         <v>76.544590194312306</v>
       </c>
       <c r="H26" s="6">
+        <f t="shared" si="1"/>
+        <v>71.229429195590043</v>
+      </c>
+      <c r="I26" s="6">
         <f t="shared" si="0"/>
-        <v>71.229429195590043</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="22"/>
+        <v>24.029603092138469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="28"/>
       <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
@@ -7668,12 +7921,16 @@
         <v>0.49470952791969502</v>
       </c>
       <c r="H27" s="6">
+        <f t="shared" si="1"/>
+        <v>0.46660557777468259</v>
+      </c>
+      <c r="I27" s="6">
         <f t="shared" si="0"/>
-        <v>0.46660557777468259</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="22" t="s">
+        <v>0.14439756460710962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="28" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -7695,12 +7952,16 @@
         <v>14.3486978202311</v>
       </c>
       <c r="H28" s="6">
+        <f t="shared" si="1"/>
+        <v>18.946439086860579</v>
+      </c>
+      <c r="I28" s="6">
         <f t="shared" si="0"/>
-        <v>18.946439086860579</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="22"/>
+        <v>5.9796209233310629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="28"/>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
@@ -7720,12 +7981,16 @@
         <v>0.12917809259725199</v>
       </c>
       <c r="H29" s="6">
+        <f t="shared" si="1"/>
+        <v>0.14388422085562774</v>
+      </c>
+      <c r="I29" s="6">
         <f t="shared" si="0"/>
-        <v>0.14388422085562774</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="22" t="s">
+        <v>4.6945252118213793E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -7747,12 +8012,16 @@
         <v>22.922509633402299</v>
       </c>
       <c r="H30" s="6">
+        <f t="shared" si="1"/>
+        <v>8.4754602314422609</v>
+      </c>
+      <c r="I30" s="6">
         <f t="shared" si="0"/>
-        <v>8.4754602314422609</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="22"/>
+        <v>7.3581983649250073</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="28"/>
       <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
@@ -7772,12 +8041,16 @@
         <v>0.13819752292783699</v>
       </c>
       <c r="H31" s="6">
+        <f t="shared" si="1"/>
+        <v>6.4197838215576369E-2</v>
+      </c>
+      <c r="I31" s="6">
         <f t="shared" si="0"/>
-        <v>6.4197838215576369E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="22" t="s">
+        <v>4.7638970143488397E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -7799,12 +8072,16 @@
         <v>62.091147031347603</v>
       </c>
       <c r="H32" s="3">
+        <f t="shared" si="1"/>
+        <v>36.059737592906707</v>
+      </c>
+      <c r="I32" s="6">
         <f t="shared" si="0"/>
-        <v>36.059737592906707</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="22"/>
+        <v>34.63796499595172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="28"/>
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
@@ -7824,23 +8101,28 @@
         <v>0.14156346260222299</v>
       </c>
       <c r="H33" s="3">
+        <f t="shared" si="1"/>
+        <v>6.9112336999691423E-2</v>
+      </c>
+      <c r="I33" s="6">
         <f t="shared" si="0"/>
-        <v>6.9112336999691423E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="22" t="s">
+        <v>6.2291691342529668E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="35" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
         <v>17</v>
       </c>
@@ -7866,8 +8148,12 @@
         <f>SUM(C35:G35)/5</f>
         <v>15.602879999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I35" s="6">
+        <f t="shared" si="0"/>
+        <v>16.534921792787529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -7890,11 +8176,15 @@
         <v>3.4094000000000002</v>
       </c>
       <c r="H36" s="3">
+        <f t="shared" si="1"/>
+        <v>6.2330800000000002</v>
+      </c>
+      <c r="I36" s="6">
         <f t="shared" si="0"/>
-        <v>6.2330800000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+        <v>7.4715035470512889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>16</v>
       </c>
@@ -7917,49 +8207,53 @@
         <v>0.40324437394692397</v>
       </c>
       <c r="H37" s="5">
+        <f t="shared" si="1"/>
+        <v>0.51169330174386596</v>
+      </c>
+      <c r="I37" s="26">
         <f t="shared" si="0"/>
-        <v>0.51169330174386596</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.1906443512286578</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
     </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
     </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
     </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
     </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
     </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -8015,14 +8309,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="15" customFormat="1" ht="63.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
@@ -8045,7 +8339,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -8065,7 +8359,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="22"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
@@ -8083,7 +8377,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -8103,7 +8397,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="22"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
@@ -8121,7 +8415,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -8141,7 +8435,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="22"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
@@ -8251,14 +8545,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="15" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
@@ -8281,14 +8575,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18"/>
@@ -8399,14 +8693,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11"/>
@@ -8517,14 +8811,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="7.4">
       <c r="A18" s="19" t="s">
@@ -8593,13 +8887,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
@@ -8619,13 +8913,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
@@ -8718,13 +9012,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11"/>
@@ -8817,13 +9111,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
@@ -8873,7 +9167,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8886,9 +9180,9 @@
       <c r="A1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13"/>
@@ -8898,7 +9192,7 @@
       <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8907,20 +9201,20 @@
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6">
@@ -8939,7 +9233,7 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="22"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="6">
         <v>313.087042</v>
       </c>
@@ -8956,7 +9250,7 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="22"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="6">
         <v>476.76775600000002</v>
       </c>
@@ -8973,7 +9267,7 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="22"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="6">
         <v>297.30933499999998</v>
       </c>
@@ -8990,7 +9284,7 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="6">
@@ -9009,7 +9303,7 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="22"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="6">
         <v>392.973795</v>
       </c>
@@ -9026,7 +9320,7 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="22"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="6">
         <v>322.16257200000001</v>
       </c>
@@ -9043,7 +9337,7 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="22"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="6">
         <v>673.83774900000003</v>
       </c>
@@ -9060,7 +9354,7 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="6">
@@ -9079,7 +9373,7 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="22"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="6">
         <v>855.82442500000002</v>
       </c>
@@ -9096,7 +9390,7 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="22"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="6">
         <v>46.749594999999999</v>
       </c>
@@ -9113,7 +9407,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="22"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="6">
         <v>627.30629099999999</v>
       </c>
@@ -9130,7 +9424,7 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="6">
@@ -9149,7 +9443,7 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:4" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="22"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="6">
         <v>544.25837999999999</v>
       </c>
@@ -9161,7 +9455,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="22"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="6">
         <v>247.11986999999999</v>
       </c>
@@ -9173,7 +9467,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="22"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="6">
         <v>156.02176499999999</v>
       </c>
@@ -9185,52 +9479,52 @@
       </c>
     </row>
     <row r="20" spans="1:4" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="6">
         <v>304.017605</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="6">
         <v>305.12200000000001</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="6">
         <v>305.053</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="32"/>
-      <c r="B21" s="41">
+      <c r="A21" s="28"/>
+      <c r="B21" s="6">
         <v>92.622201000000004</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="6">
         <v>95.203999999999994</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="6">
         <v>95.231999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="32"/>
-      <c r="B22" s="41">
+      <c r="A22" s="28"/>
+      <c r="B22" s="6">
         <v>68.151399999999995</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="6">
         <v>73.766000000000005</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="6">
         <v>74.191999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="33"/>
-      <c r="B23" s="42">
+      <c r="A23" s="35"/>
+      <c r="B23" s="26">
         <v>203.093446</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="26">
         <v>204.827</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="26">
         <v>204.55099999999999</v>
       </c>
     </row>
@@ -9245,6 +9539,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9252,7 +9547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83C2F29-B52A-4448-805B-F4E63436F2BC}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -9263,22 +9558,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9287,15 +9582,15 @@
       <c r="B3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6">
@@ -9309,7 +9604,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="40"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="6">
         <v>673.83774900000003</v>
       </c>
@@ -9321,7 +9616,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="40"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="6">
         <v>304.017605</v>
       </c>
@@ -9333,7 +9628,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="40"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="6">
         <v>92.622201000000004</v>
       </c>
@@ -9345,7 +9640,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="40"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="6">
         <v>544.25837999999999</v>
       </c>
@@ -9357,7 +9652,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="40"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="6">
         <v>476.76775600000002</v>
       </c>
@@ -9369,7 +9664,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="40"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="6">
         <v>313.087042</v>
       </c>
@@ -9381,7 +9676,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="40"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="6">
         <v>68.151399999999995</v>
       </c>
@@ -9393,7 +9688,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="40"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="6">
         <v>433.47470600000003</v>
       </c>
@@ -9405,7 +9700,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="40"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="6">
         <v>322.16257200000001</v>
       </c>
@@ -9417,7 +9712,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="40"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="6">
         <v>855.82442500000002</v>
       </c>
@@ -9429,7 +9724,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="40"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="6">
         <v>627.30629099999999</v>
       </c>
@@ -9441,7 +9736,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="40"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="6">
         <v>156.02176499999999</v>
       </c>
@@ -9453,7 +9748,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="6">
@@ -9467,7 +9762,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="40"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="6">
         <v>673.83774900000003</v>
       </c>
@@ -9479,7 +9774,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="40"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="6">
         <v>544.25837999999999</v>
       </c>
@@ -9491,7 +9786,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="40"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="6">
         <v>313.087042</v>
       </c>
@@ -9502,8 +9797,8 @@
         <v>300.55099999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="34" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="40"/>
+    <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="38"/>
       <c r="B21" s="6">
         <v>68.151399999999995</v>
       </c>
@@ -9514,8 +9809,8 @@
         <v>65.858000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="34" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="40"/>
+    <row r="22" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="38"/>
       <c r="B22" s="6">
         <v>433.47470600000003</v>
       </c>
@@ -9526,8 +9821,8 @@
         <v>415.38799999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="34" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="40"/>
+    <row r="23" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="38"/>
       <c r="B23" s="6">
         <v>322.16257200000001</v>
       </c>
@@ -9538,8 +9833,8 @@
         <v>309.17899999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="34" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="40"/>
+    <row r="24" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="38"/>
       <c r="B24" s="6">
         <v>855.82442500000002</v>
       </c>
@@ -9550,8 +9845,8 @@
         <v>811.35900000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="34" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="40"/>
+    <row r="25" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="38"/>
       <c r="B25" s="6">
         <v>627.30629099999999</v>
       </c>
@@ -9562,8 +9857,8 @@
         <v>601.29300000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="34" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="40"/>
+    <row r="26" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="38"/>
       <c r="B26" s="6">
         <v>156.02176499999999</v>
       </c>
@@ -9574,8 +9869,8 @@
         <v>145.78800000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="34" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="45" t="s">
+    <row r="27" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="6">
@@ -9589,7 +9884,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="45"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="6">
         <v>433.47470600000003</v>
       </c>
@@ -9601,7 +9896,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="45"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="6">
         <v>322.16257200000001</v>
       </c>
@@ -9613,7 +9908,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="45"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="6">
         <v>855.82442500000002</v>
       </c>
@@ -9625,7 +9920,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="45"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="6">
         <v>627.30629099999999</v>
       </c>
@@ -9637,7 +9932,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="45"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="6">
         <v>156.02176499999999</v>
       </c>
@@ -9649,28 +9944,28 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="6">
         <v>855.82442500000002</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="6">
         <v>852.45699999999999</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="6">
         <v>852.00300000000004</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="46"/>
-      <c r="B34" s="42">
+      <c r="A34" s="39"/>
+      <c r="B34" s="26">
         <v>156.02176499999999</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="26">
         <v>150.809</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="26">
         <v>150.399</v>
       </c>
     </row>
